--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rln3-Rxfp4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rln3-Rxfp4.xlsx
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.230598000000001</v>
+        <v>7.889267333333334</v>
       </c>
       <c r="N2">
-        <v>15.691794</v>
+        <v>23.667802</v>
       </c>
       <c r="O2">
-        <v>0.3755836948102589</v>
+        <v>0.3739406795058886</v>
       </c>
       <c r="P2">
-        <v>0.375583694810259</v>
+        <v>0.3739406795058886</v>
       </c>
       <c r="Q2">
-        <v>3.688649093188</v>
+        <v>5.563558659070667</v>
       </c>
       <c r="R2">
-        <v>33.197841838692</v>
+        <v>50.072027931636</v>
       </c>
       <c r="S2">
-        <v>0.3755836948102589</v>
+        <v>0.3739406795058886</v>
       </c>
       <c r="T2">
-        <v>0.375583694810259</v>
+        <v>0.3739406795058886</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,10 +626,10 @@
         <v>10.452839</v>
       </c>
       <c r="O3">
-        <v>0.2501891047560765</v>
+        <v>0.1651501782221118</v>
       </c>
       <c r="P3">
-        <v>0.2501891047560765</v>
+        <v>0.1651501782221118</v>
       </c>
       <c r="Q3">
         <v>2.457134926611334</v>
@@ -638,10 +638,10 @@
         <v>22.114214339502</v>
       </c>
       <c r="S3">
-        <v>0.2501891047560765</v>
+        <v>0.1651501782221118</v>
       </c>
       <c r="T3">
-        <v>0.2501891047560765</v>
+        <v>0.1651501782221118</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6980880000000002</v>
+        <v>2.650898666666667</v>
       </c>
       <c r="N4">
-        <v>2.094264</v>
+        <v>7.952696</v>
       </c>
       <c r="O4">
-        <v>0.05012628964082196</v>
+        <v>0.1256490377156173</v>
       </c>
       <c r="P4">
-        <v>0.05012628964082196</v>
+        <v>0.1256490377156173</v>
       </c>
       <c r="Q4">
-        <v>0.4922958461280001</v>
+        <v>1.869429645125333</v>
       </c>
       <c r="R4">
-        <v>4.430662615152</v>
+        <v>16.824866806128</v>
       </c>
       <c r="S4">
-        <v>0.05012628964082196</v>
+        <v>0.1256490377156173</v>
       </c>
       <c r="T4">
-        <v>0.05012628964082196</v>
+        <v>0.1256490377156173</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.656538</v>
+        <v>4.010902</v>
       </c>
       <c r="N5">
-        <v>7.969613999999999</v>
+        <v>12.032706</v>
       </c>
       <c r="O5">
-        <v>0.1907530185733745</v>
+        <v>0.1901113697813841</v>
       </c>
       <c r="P5">
-        <v>0.1907530185733745</v>
+        <v>0.1901113697813841</v>
       </c>
       <c r="Q5">
-        <v>1.873406536828</v>
+        <v>2.828512155812</v>
       </c>
       <c r="R5">
-        <v>16.860658831452</v>
+        <v>25.456609402308</v>
       </c>
       <c r="S5">
-        <v>0.1907530185733745</v>
+        <v>0.1901113697813841</v>
       </c>
       <c r="T5">
-        <v>0.1907530185733745</v>
+        <v>0.1901113697813841</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.857080666666667</v>
+        <v>3.062296333333334</v>
       </c>
       <c r="N6">
-        <v>5.571242</v>
+        <v>9.186889000000001</v>
       </c>
       <c r="O6">
-        <v>0.1333478922194681</v>
+        <v>0.1451487347749983</v>
       </c>
       <c r="P6">
-        <v>0.1333478922194681</v>
+        <v>0.1451487347749983</v>
       </c>
       <c r="Q6">
-        <v>1.309624428617333</v>
+        <v>2.159549748044667</v>
       </c>
       <c r="R6">
-        <v>11.786619857556</v>
+        <v>19.435947732402</v>
       </c>
       <c r="S6">
-        <v>0.1333478922194681</v>
+        <v>0.1451487347749983</v>
       </c>
       <c r="T6">
-        <v>0.1333478922194681</v>
+        <v>0.1451487347749983</v>
       </c>
     </row>
   </sheetData>
